--- a/Code/Results/Cases/Case_5_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.560441235934888</v>
+        <v>1.654881412372333</v>
       </c>
       <c r="C2">
-        <v>0.596211072742193</v>
+        <v>0.3269421160264017</v>
       </c>
       <c r="D2">
-        <v>0.08776283757227787</v>
+        <v>0.04116341890107122</v>
       </c>
       <c r="E2">
-        <v>0.01644882345383802</v>
+        <v>0.0709066865514405</v>
       </c>
       <c r="F2">
-        <v>6.814568689828434</v>
+        <v>5.035716064856842</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1461701391510317</v>
+        <v>0.1825092295516555</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5345496983490534</v>
+        <v>0.4906818933942318</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.209453812627999</v>
+        <v>1.58751167872316</v>
       </c>
       <c r="C3">
-        <v>0.5101966290969528</v>
+        <v>0.3113641504563986</v>
       </c>
       <c r="D3">
-        <v>0.0751175515671747</v>
+        <v>0.03808527330661349</v>
       </c>
       <c r="E3">
-        <v>0.01674378852644764</v>
+        <v>0.07151317091575393</v>
       </c>
       <c r="F3">
-        <v>6.091542649109414</v>
+        <v>4.851349761972102</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1350218267740004</v>
+        <v>0.1800861087912082</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4650173322030469</v>
+        <v>0.4803755351055017</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.000182002722909</v>
+        <v>1.547709735660533</v>
       </c>
       <c r="C4">
-        <v>0.4590211430943612</v>
+        <v>0.3021723861938312</v>
       </c>
       <c r="D4">
-        <v>0.06755646170474705</v>
+        <v>0.03620435605168382</v>
       </c>
       <c r="E4">
-        <v>0.01695168855050522</v>
+        <v>0.0719124968995537</v>
       </c>
       <c r="F4">
-        <v>5.659908267996173</v>
+        <v>4.739545318432931</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1284058413089468</v>
+        <v>0.1786455481355631</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4237432514731836</v>
+        <v>0.4745060722007537</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.916259030101457</v>
+        <v>1.531880906409071</v>
       </c>
       <c r="C5">
-        <v>0.4385197502933522</v>
+        <v>0.29851977324671</v>
       </c>
       <c r="D5">
-        <v>0.06451786078914523</v>
+        <v>0.03543994555714391</v>
       </c>
       <c r="E5">
-        <v>0.01704303452121625</v>
+        <v>0.07208201892930788</v>
       </c>
       <c r="F5">
-        <v>5.48667871194877</v>
+        <v>4.694327541323332</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1257603461883789</v>
+        <v>0.1780702718664458</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4072361829949287</v>
+        <v>0.4722291538982688</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.902399913385864</v>
+        <v>1.529276077001498</v>
       </c>
       <c r="C6">
-        <v>0.4351352406484352</v>
+        <v>0.2979188619858917</v>
       </c>
       <c r="D6">
-        <v>0.06401564567827478</v>
+        <v>0.03531313537812508</v>
       </c>
       <c r="E6">
-        <v>0.0170585995885606</v>
+        <v>0.07211057879040172</v>
       </c>
       <c r="F6">
-        <v>5.458063331867436</v>
+        <v>4.686839677558993</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1253239263886883</v>
+        <v>0.1779754548215138</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4045128641985869</v>
+        <v>0.4718580036487126</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.999044955744125</v>
+        <v>1.547494683280604</v>
       </c>
       <c r="C7">
-        <v>0.458743297511802</v>
+        <v>0.3021227497483778</v>
       </c>
       <c r="D7">
-        <v>0.06751532012020078</v>
+        <v>0.0361940387962818</v>
       </c>
       <c r="E7">
-        <v>0.01695289378684262</v>
+        <v>0.07191475560156402</v>
       </c>
       <c r="F7">
-        <v>5.657561778025382</v>
+        <v>4.738934115475018</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1283699672349954</v>
+        <v>0.1786377422792498</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.423519421316918</v>
+        <v>0.4744749000346147</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.437991673758518</v>
+        <v>1.631326407921506</v>
       </c>
       <c r="C8">
-        <v>0.566175746514773</v>
+        <v>0.3214929308545038</v>
       </c>
       <c r="D8">
-        <v>0.08335516837789925</v>
+        <v>0.04010006669503241</v>
       </c>
       <c r="E8">
-        <v>0.01654489527169734</v>
+        <v>0.07111022167729963</v>
       </c>
       <c r="F8">
-        <v>6.562441333830662</v>
+        <v>4.97185173938027</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1422741593549546</v>
+        <v>0.1816638604472516</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5102520453672241</v>
+        <v>0.4870328087104596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359243883571764</v>
+        <v>1.808243947042683</v>
       </c>
       <c r="C9">
-        <v>0.7929250265966346</v>
+        <v>0.362475079288032</v>
       </c>
       <c r="D9">
-        <v>0.1164687385964669</v>
+        <v>0.0478413228036203</v>
       </c>
       <c r="E9">
-        <v>0.01596328884099663</v>
+        <v>0.0697454833780915</v>
       </c>
       <c r="F9">
-        <v>8.456803491108616</v>
+        <v>5.440070794699466</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1717228665704837</v>
+        <v>0.187978610368674</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6939093620544057</v>
+        <v>0.5153194574813611</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.091101099001548</v>
+        <v>1.946046021915095</v>
       </c>
       <c r="C10">
-        <v>0.9744312625443285</v>
+        <v>0.3944671454910633</v>
       </c>
       <c r="D10">
-        <v>0.1427694850447239</v>
+        <v>0.05359221827968952</v>
       </c>
       <c r="E10">
-        <v>0.01567901886511702</v>
+        <v>0.06887151593481544</v>
       </c>
       <c r="F10">
-        <v>9.958131009255055</v>
+        <v>5.791629124467505</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1952865872356568</v>
+        <v>0.1928585155893998</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8409407627456744</v>
+        <v>0.5383669275127048</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.441050567251011</v>
+        <v>2.010476537507486</v>
       </c>
       <c r="C11">
-        <v>1.061682204142755</v>
+        <v>0.4094424976647701</v>
       </c>
       <c r="D11">
-        <v>0.1553629940666355</v>
+        <v>0.05622521823730153</v>
       </c>
       <c r="E11">
-        <v>0.01558351828408444</v>
+        <v>0.06850163978817303</v>
       </c>
       <c r="F11">
-        <v>10.67499481750565</v>
+        <v>5.953329208850789</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2065901069702036</v>
+        <v>0.1951326180401836</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.911524429184567</v>
+        <v>0.5493515098151605</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.576541047367527</v>
+        <v>2.035128669714084</v>
       </c>
       <c r="C12">
-        <v>1.095546119448301</v>
+        <v>0.4151749363073804</v>
       </c>
       <c r="D12">
-        <v>0.1602430543848357</v>
+        <v>0.05722493247122884</v>
       </c>
       <c r="E12">
-        <v>0.0155525036089319</v>
+        <v>0.06836554187139932</v>
       </c>
       <c r="F12">
-        <v>10.95236785325079</v>
+        <v>6.014825675715656</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.210971503307988</v>
+        <v>0.1960017025121346</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9388954839236945</v>
+        <v>0.5535836053970229</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.547219065156469</v>
+        <v>2.029808060759478</v>
       </c>
       <c r="C13">
-        <v>1.088213540400972</v>
+        <v>0.4139375986554512</v>
       </c>
       <c r="D13">
-        <v>0.1591867273330223</v>
+        <v>0.05700950445249475</v>
       </c>
       <c r="E13">
-        <v>0.01555894899177179</v>
+        <v>0.0683946768575181</v>
       </c>
       <c r="F13">
-        <v>10.89234893651854</v>
+        <v>6.001569418181191</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2100230928182327</v>
+        <v>0.1958141746858431</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9329700535400605</v>
+        <v>0.5526689156965787</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.452134502246224</v>
+        <v>2.012499581583029</v>
       </c>
       <c r="C14">
-        <v>1.064450722770005</v>
+        <v>0.4099128689960878</v>
       </c>
       <c r="D14">
-        <v>0.1557621181882638</v>
+        <v>0.05630741083128044</v>
       </c>
       <c r="E14">
-        <v>0.0155808616476012</v>
+        <v>0.06849036353676041</v>
       </c>
       <c r="F14">
-        <v>10.69768930462362</v>
+        <v>5.958383214121511</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2069484337528493</v>
+        <v>0.1952039584008176</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9137626701371886</v>
+        <v>0.5496982311914635</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.394296882314563</v>
+        <v>2.001930766140333</v>
       </c>
       <c r="C15">
-        <v>1.050007602808392</v>
+        <v>0.4074556553162267</v>
       </c>
       <c r="D15">
-        <v>0.1536796083764642</v>
+        <v>0.05587771062630509</v>
       </c>
       <c r="E15">
-        <v>0.01559496382554215</v>
+        <v>0.06854949041490421</v>
       </c>
       <c r="F15">
-        <v>10.57925884486843</v>
+        <v>5.931965087199615</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2050788297144877</v>
+        <v>0.1948312202674813</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9020849391976711</v>
+        <v>0.5478880558615131</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068616142443091</v>
+        <v>1.941870673897483</v>
       </c>
       <c r="C16">
-        <v>0.9688356179776463</v>
+        <v>0.3934970403219609</v>
       </c>
       <c r="D16">
-        <v>0.1419608092133871</v>
+        <v>0.05342050462101611</v>
       </c>
       <c r="E16">
-        <v>0.01568596379759324</v>
+        <v>0.06889624410961837</v>
       </c>
       <c r="F16">
-        <v>9.912048685708697</v>
+        <v>5.78109811528833</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1945610115477479</v>
+        <v>0.1927110000424932</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.836411350354787</v>
+        <v>0.5376591703948108</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.873523648937748</v>
+        <v>1.905474422068608</v>
       </c>
       <c r="C17">
-        <v>0.9203364716838678</v>
+        <v>0.3850426090877193</v>
       </c>
       <c r="D17">
-        <v>0.1349463625265486</v>
+        <v>0.05191757373354733</v>
       </c>
       <c r="E17">
-        <v>0.01575063783185637</v>
+        <v>0.06911604807206029</v>
       </c>
       <c r="F17">
-        <v>9.51209808357018</v>
+        <v>5.689006943400841</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.188269418772677</v>
+        <v>0.1914242938555404</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7971421569952852</v>
+        <v>0.5315125704641659</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.762877257381149</v>
+        <v>1.884704199872147</v>
       </c>
       <c r="C18">
-        <v>0.8928712273938118</v>
+        <v>0.3802195082721482</v>
       </c>
       <c r="D18">
-        <v>0.1309696108802996</v>
+        <v>0.05105470363834286</v>
       </c>
       <c r="E18">
-        <v>0.0157909994563683</v>
+        <v>0.06924508135166185</v>
       </c>
       <c r="F18">
-        <v>9.285175733127346</v>
+        <v>5.636205009110824</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1847044697177438</v>
+        <v>0.1906893086200014</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7748958992568689</v>
+        <v>0.5280242533332711</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.725668841222273</v>
+        <v>1.877699827562878</v>
       </c>
       <c r="C19">
-        <v>0.8836417470103299</v>
+        <v>0.3785932741721751</v>
       </c>
       <c r="D19">
-        <v>0.1296325062073294</v>
+        <v>0.05076281449517239</v>
       </c>
       <c r="E19">
-        <v>0.01580520054561241</v>
+        <v>0.06928921821064815</v>
       </c>
       <c r="F19">
-        <v>9.208850876887738</v>
+        <v>5.618355501492175</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1835062144793866</v>
+        <v>0.1904413260675568</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7674191225640214</v>
+        <v>0.5268512326574424</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.894126065431522</v>
+        <v>1.909331876987892</v>
       </c>
       <c r="C20">
-        <v>0.9254537722808607</v>
+        <v>0.3859384860682553</v>
       </c>
       <c r="D20">
-        <v>0.1356869458085015</v>
+        <v>0.05207739855495674</v>
       </c>
       <c r="E20">
-        <v>0.01574342392268147</v>
+        <v>0.06909237978237748</v>
       </c>
       <c r="F20">
-        <v>9.554343848826733</v>
+        <v>5.698792911956531</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1889334877305728</v>
+        <v>0.191560737724771</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8012864718497354</v>
+        <v>0.5321620136780325</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.479977773219048</v>
+        <v>2.017576592263765</v>
       </c>
       <c r="C21">
-        <v>1.071406722537347</v>
+        <v>0.4110933504912282</v>
       </c>
       <c r="D21">
-        <v>0.1567648061829487</v>
+        <v>0.0565135588982173</v>
       </c>
       <c r="E21">
-        <v>0.0155742830570702</v>
+        <v>0.0684621505296823</v>
       </c>
       <c r="F21">
-        <v>10.75469581893179</v>
+        <v>5.97106080764371</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2078486426497861</v>
+        <v>0.1953829773679558</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9193859111951213</v>
+        <v>0.5505688218808302</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.880515421113898</v>
+        <v>2.089800933539891</v>
       </c>
       <c r="C22">
-        <v>1.171691860634724</v>
+        <v>0.4278929910621514</v>
       </c>
       <c r="D22">
-        <v>0.171201212471729</v>
+        <v>0.05942842401701398</v>
       </c>
       <c r="E22">
-        <v>0.01549392960511931</v>
+        <v>0.06807336955785281</v>
       </c>
       <c r="F22">
-        <v>11.57429564126005</v>
+        <v>6.150547587691165</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2208099471245504</v>
+        <v>0.1979273261513654</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.000384806428599</v>
+        <v>0.5630214304542775</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.664923682485437</v>
+        <v>2.051117007217215</v>
       </c>
       <c r="C23">
-        <v>1.117661391373247</v>
+        <v>0.4188935049157863</v>
       </c>
       <c r="D23">
-        <v>0.1634277911477113</v>
+        <v>0.05787120500758647</v>
       </c>
       <c r="E23">
-        <v>0.01553394348436754</v>
+        <v>0.06827876008001788</v>
       </c>
       <c r="F23">
-        <v>11.13324941997251</v>
+        <v>6.054607832565921</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2138309064040413</v>
+        <v>0.1965650777901473</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9567624216503887</v>
+        <v>0.5563363756703197</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.884807032580454</v>
+        <v>1.907587440708539</v>
       </c>
       <c r="C24">
-        <v>0.9231389510123336</v>
+        <v>0.3855333434611623</v>
       </c>
       <c r="D24">
-        <v>0.135351955351652</v>
+        <v>0.05200513807970708</v>
       </c>
       <c r="E24">
-        <v>0.01574667544806108</v>
+        <v>0.06910307191386433</v>
       </c>
       <c r="F24">
-        <v>9.535235224212528</v>
+        <v>5.69436823237271</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1886331008902218</v>
+        <v>0.1914990366374525</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7994118069004372</v>
+        <v>0.531868258891059</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.101849765558541</v>
+        <v>1.759023393854477</v>
       </c>
       <c r="C25">
-        <v>0.7293862081619125</v>
+        <v>0.3510618189814636</v>
       </c>
       <c r="D25">
-        <v>0.1072233985369309</v>
+        <v>0.04573697145602296</v>
       </c>
       <c r="E25">
-        <v>0.0160963225491475</v>
+        <v>0.07009199948946243</v>
       </c>
       <c r="F25">
-        <v>7.928072731911811</v>
+        <v>5.312119290078215</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1634665058578406</v>
+        <v>0.1862286961929769</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6424147262755753</v>
+        <v>0.5072718644532017</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_186/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.654881412372333</v>
+        <v>2.560441235935173</v>
       </c>
       <c r="C2">
-        <v>0.3269421160264017</v>
+        <v>0.5962110727418519</v>
       </c>
       <c r="D2">
-        <v>0.04116341890107122</v>
+        <v>0.08776283757286762</v>
       </c>
       <c r="E2">
-        <v>0.0709066865514405</v>
+        <v>0.01644882345383891</v>
       </c>
       <c r="F2">
-        <v>5.035716064856842</v>
+        <v>6.814568689828491</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1825092295516555</v>
+        <v>0.1461701391511028</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4906818933942318</v>
+        <v>0.5345496983490747</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.58751167872316</v>
+        <v>2.209453812628112</v>
       </c>
       <c r="C3">
-        <v>0.3113641504563986</v>
+        <v>0.5101966290968676</v>
       </c>
       <c r="D3">
-        <v>0.03808527330661349</v>
+        <v>0.07511755156696864</v>
       </c>
       <c r="E3">
-        <v>0.07151317091575393</v>
+        <v>0.01674378852648672</v>
       </c>
       <c r="F3">
-        <v>4.851349761972102</v>
+        <v>6.091542649109385</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1800861087912082</v>
+        <v>0.1350218267741568</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4803755351055017</v>
+        <v>0.4650173322030469</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.547709735660533</v>
+        <v>2.000182002722852</v>
       </c>
       <c r="C4">
-        <v>0.3021723861938312</v>
+        <v>0.4590211430948159</v>
       </c>
       <c r="D4">
-        <v>0.03620435605168382</v>
+        <v>0.06755646170458363</v>
       </c>
       <c r="E4">
-        <v>0.0719124968995537</v>
+        <v>0.01695168855052653</v>
       </c>
       <c r="F4">
-        <v>4.739545318432931</v>
+        <v>5.659908267996286</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1786455481355631</v>
+        <v>0.1284058413088616</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4745060722007537</v>
+        <v>0.4237432514732049</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.531880906409071</v>
+        <v>1.916259030101344</v>
       </c>
       <c r="C5">
-        <v>0.29851977324671</v>
+        <v>0.4385197502935512</v>
       </c>
       <c r="D5">
-        <v>0.03543994555714391</v>
+        <v>0.06451786078907418</v>
       </c>
       <c r="E5">
-        <v>0.07208201892930788</v>
+        <v>0.0170430345211896</v>
       </c>
       <c r="F5">
-        <v>4.694327541323332</v>
+        <v>5.486678711948684</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1780702718664458</v>
+        <v>0.1257603461885211</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4722291538982688</v>
+        <v>0.4072361829949216</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.529276077001498</v>
+        <v>1.902399913386034</v>
       </c>
       <c r="C6">
-        <v>0.2979188619858917</v>
+        <v>0.4351352406482363</v>
       </c>
       <c r="D6">
-        <v>0.03531313537812508</v>
+        <v>0.06401564567807583</v>
       </c>
       <c r="E6">
-        <v>0.07211057879040172</v>
+        <v>0.01705859958854195</v>
       </c>
       <c r="F6">
-        <v>4.686839677558993</v>
+        <v>5.458063331867436</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1779754548215138</v>
+        <v>0.1253239263889512</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4718580036487126</v>
+        <v>0.4045128641985727</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.547494683280604</v>
+        <v>1.999044955744182</v>
       </c>
       <c r="C7">
-        <v>0.3021227497483778</v>
+        <v>0.458743297511603</v>
       </c>
       <c r="D7">
-        <v>0.0361940387962818</v>
+        <v>0.06751532012064843</v>
       </c>
       <c r="E7">
-        <v>0.07191475560156402</v>
+        <v>0.01695289378686393</v>
       </c>
       <c r="F7">
-        <v>4.738934115475018</v>
+        <v>5.657561778025297</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1786377422792498</v>
+        <v>0.128369967234832</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4744749000346147</v>
+        <v>0.423519421316918</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.631326407921506</v>
+        <v>2.437991673758745</v>
       </c>
       <c r="C8">
-        <v>0.3214929308545038</v>
+        <v>0.5661757465150288</v>
       </c>
       <c r="D8">
-        <v>0.04010006669503241</v>
+        <v>0.08335516837800583</v>
       </c>
       <c r="E8">
-        <v>0.07111022167729963</v>
+        <v>0.01654489527176395</v>
       </c>
       <c r="F8">
-        <v>4.97185173938027</v>
+        <v>6.562441333830748</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1816638604472516</v>
+        <v>0.1422741593549333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4870328087104596</v>
+        <v>0.5102520453672028</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.808243947042683</v>
+        <v>3.359243883571992</v>
       </c>
       <c r="C9">
-        <v>0.362475079288032</v>
+        <v>0.7929250265961798</v>
       </c>
       <c r="D9">
-        <v>0.0478413228036203</v>
+        <v>0.1164687385962111</v>
       </c>
       <c r="E9">
-        <v>0.0697454833780915</v>
+        <v>0.01596328884092735</v>
       </c>
       <c r="F9">
-        <v>5.440070794699466</v>
+        <v>8.456803491108701</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.187978610368674</v>
+        <v>0.1717228665705122</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5153194574813611</v>
+        <v>0.6939093620544128</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.946046021915095</v>
+        <v>4.091101099001207</v>
       </c>
       <c r="C10">
-        <v>0.3944671454910633</v>
+        <v>0.9744312625439306</v>
       </c>
       <c r="D10">
-        <v>0.05359221827968952</v>
+        <v>0.142769485044937</v>
       </c>
       <c r="E10">
-        <v>0.06887151593481544</v>
+        <v>0.01567901886504952</v>
       </c>
       <c r="F10">
-        <v>5.791629124467505</v>
+        <v>9.958131009255084</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1928585155893998</v>
+        <v>0.1952865872353513</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5383669275127048</v>
+        <v>0.840940762745646</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.010476537507486</v>
+        <v>4.441050567250841</v>
       </c>
       <c r="C11">
-        <v>0.4094424976647701</v>
+        <v>1.061682204142613</v>
       </c>
       <c r="D11">
-        <v>0.05622521823730153</v>
+        <v>0.1553629940664933</v>
       </c>
       <c r="E11">
-        <v>0.06850163978817303</v>
+        <v>0.01558351828403115</v>
       </c>
       <c r="F11">
-        <v>5.953329208850789</v>
+        <v>10.67499481750588</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1951326180401836</v>
+        <v>0.2065901069701255</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5493515098151605</v>
+        <v>0.9115244291845315</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.035128669714084</v>
+        <v>4.576541047367584</v>
       </c>
       <c r="C12">
-        <v>0.4151749363073804</v>
+        <v>1.095546119448358</v>
       </c>
       <c r="D12">
-        <v>0.05722493247122884</v>
+        <v>0.1602430543849209</v>
       </c>
       <c r="E12">
-        <v>0.06836554187139932</v>
+        <v>0.01555250360891058</v>
       </c>
       <c r="F12">
-        <v>6.014825675715656</v>
+        <v>10.95236785325073</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1960017025121346</v>
+        <v>0.210971503307988</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5535836053970229</v>
+        <v>0.9388954839236874</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.029808060759478</v>
+        <v>4.547219065156696</v>
       </c>
       <c r="C13">
-        <v>0.4139375986554512</v>
+        <v>1.088213540401426</v>
       </c>
       <c r="D13">
-        <v>0.05700950445249475</v>
+        <v>0.1591867273329086</v>
       </c>
       <c r="E13">
-        <v>0.0683946768575181</v>
+        <v>0.01555894899166699</v>
       </c>
       <c r="F13">
-        <v>6.001569418181191</v>
+        <v>10.8923489365186</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1958141746858431</v>
+        <v>0.2100230928181261</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5526689156965787</v>
+        <v>0.9329700535400676</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.012499581583029</v>
+        <v>4.452134502246224</v>
       </c>
       <c r="C14">
-        <v>0.4099128689960878</v>
+        <v>1.064450722770431</v>
       </c>
       <c r="D14">
-        <v>0.05630741083128044</v>
+        <v>0.1557621181881927</v>
       </c>
       <c r="E14">
-        <v>0.06849036353676041</v>
+        <v>0.01558086164763051</v>
       </c>
       <c r="F14">
-        <v>5.958383214121511</v>
+        <v>10.69768930462368</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1952039584008176</v>
+        <v>0.2069484337530909</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5496982311914635</v>
+        <v>0.9137626701371602</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.001930766140333</v>
+        <v>4.394296882314336</v>
       </c>
       <c r="C15">
-        <v>0.4074556553162267</v>
+        <v>1.050007602808336</v>
       </c>
       <c r="D15">
-        <v>0.05587771062630509</v>
+        <v>0.1536796083765779</v>
       </c>
       <c r="E15">
-        <v>0.06854949041490421</v>
+        <v>0.01559496382549597</v>
       </c>
       <c r="F15">
-        <v>5.931965087199615</v>
+        <v>10.57925884486843</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1948312202674813</v>
+        <v>0.2050788297143953</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5478880558615131</v>
+        <v>0.9020849391976924</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.941870673897483</v>
+        <v>4.068616142443375</v>
       </c>
       <c r="C16">
-        <v>0.3934970403219609</v>
+        <v>0.968835617978101</v>
       </c>
       <c r="D16">
-        <v>0.05342050462101611</v>
+        <v>0.1419608092131739</v>
       </c>
       <c r="E16">
-        <v>0.06889624410961837</v>
+        <v>0.01568596379754972</v>
       </c>
       <c r="F16">
-        <v>5.78109811528833</v>
+        <v>9.912048685708641</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1927110000424932</v>
+        <v>0.1945610115479255</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5376591703948108</v>
+        <v>0.8364113503547728</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.905474422068608</v>
+        <v>3.873523648938146</v>
       </c>
       <c r="C17">
-        <v>0.3850426090877193</v>
+        <v>0.9203364716838109</v>
       </c>
       <c r="D17">
-        <v>0.05191757373354733</v>
+        <v>0.1349463625264491</v>
       </c>
       <c r="E17">
-        <v>0.06911604807206029</v>
+        <v>0.0157506378319292</v>
       </c>
       <c r="F17">
-        <v>5.689006943400841</v>
+        <v>9.512098083570379</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1914242938555404</v>
+        <v>0.1882694187726841</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5315125704641659</v>
+        <v>0.797142156995271</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.884704199872147</v>
+        <v>3.762877257381092</v>
       </c>
       <c r="C18">
-        <v>0.3802195082721482</v>
+        <v>0.8928712273934138</v>
       </c>
       <c r="D18">
-        <v>0.05105470363834286</v>
+        <v>0.1309696108801006</v>
       </c>
       <c r="E18">
-        <v>0.06924508135166185</v>
+        <v>0.01579099945638873</v>
       </c>
       <c r="F18">
-        <v>5.636205009110824</v>
+        <v>9.285175733127232</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1906893086200014</v>
+        <v>0.1847044697176159</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5280242533332711</v>
+        <v>0.7748958992568973</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.877699827562878</v>
+        <v>3.725668841222443</v>
       </c>
       <c r="C19">
-        <v>0.3785932741721751</v>
+        <v>0.883641747009932</v>
       </c>
       <c r="D19">
-        <v>0.05076281449517239</v>
+        <v>0.129632506207102</v>
       </c>
       <c r="E19">
-        <v>0.06928921821064815</v>
+        <v>0.01580520054566215</v>
       </c>
       <c r="F19">
-        <v>5.618355501492175</v>
+        <v>9.208850876887766</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1904413260675568</v>
+        <v>0.1835062144792445</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5268512326574424</v>
+        <v>0.7674191225640286</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909331876987892</v>
+        <v>3.894126065431351</v>
       </c>
       <c r="C20">
-        <v>0.3859384860682553</v>
+        <v>0.9254537722807754</v>
       </c>
       <c r="D20">
-        <v>0.05207739855495674</v>
+        <v>0.1356869458088141</v>
       </c>
       <c r="E20">
-        <v>0.06909237978237748</v>
+        <v>0.01574342392278893</v>
       </c>
       <c r="F20">
-        <v>5.698792911956531</v>
+        <v>9.554343848826875</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.191560737724771</v>
+        <v>0.1889334877305018</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5321620136780325</v>
+        <v>0.8012864718497283</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.017576592263765</v>
+        <v>4.479977773219275</v>
       </c>
       <c r="C21">
-        <v>0.4110933504912282</v>
+        <v>1.071406722536523</v>
       </c>
       <c r="D21">
-        <v>0.0565135588982173</v>
+        <v>0.1567648061830766</v>
       </c>
       <c r="E21">
-        <v>0.0684621505296823</v>
+        <v>0.01557428305706843</v>
       </c>
       <c r="F21">
-        <v>5.97106080764371</v>
+        <v>10.75469581893162</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1953829773679558</v>
+        <v>0.2078486426495019</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5505688218808302</v>
+        <v>0.9193859111951568</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.089800933539891</v>
+        <v>4.880515421113785</v>
       </c>
       <c r="C22">
-        <v>0.4278929910621514</v>
+        <v>1.17169186063461</v>
       </c>
       <c r="D22">
-        <v>0.05942842401701398</v>
+        <v>0.1712012124713738</v>
       </c>
       <c r="E22">
-        <v>0.06807336955785281</v>
+        <v>0.01549392960514862</v>
       </c>
       <c r="F22">
-        <v>6.150547587691165</v>
+        <v>11.57429564125994</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1979273261513654</v>
+        <v>0.2208099471243301</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5630214304542775</v>
+        <v>1.000384806428627</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.051117007217215</v>
+        <v>4.664923682485608</v>
       </c>
       <c r="C23">
-        <v>0.4188935049157863</v>
+        <v>1.117661391373275</v>
       </c>
       <c r="D23">
-        <v>0.05787120500758647</v>
+        <v>0.1634277911481945</v>
       </c>
       <c r="E23">
-        <v>0.06827876008001788</v>
+        <v>0.01553394348449455</v>
       </c>
       <c r="F23">
-        <v>6.054607832565921</v>
+        <v>11.13324941997246</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1965650777901473</v>
+        <v>0.2138309064042048</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5563363756703197</v>
+        <v>0.95676242165041</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.907587440708539</v>
+        <v>3.884807032580511</v>
       </c>
       <c r="C24">
-        <v>0.3855333434611623</v>
+        <v>0.9231389510122483</v>
       </c>
       <c r="D24">
-        <v>0.05200513807970708</v>
+        <v>0.1353519553514531</v>
       </c>
       <c r="E24">
-        <v>0.06910307191386433</v>
+        <v>0.01574667544806729</v>
       </c>
       <c r="F24">
-        <v>5.69436823237271</v>
+        <v>9.535235224212471</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1914990366374525</v>
+        <v>0.1886331008901507</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.531868258891059</v>
+        <v>0.7994118069004585</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.759023393854477</v>
+        <v>3.101849765558484</v>
       </c>
       <c r="C25">
-        <v>0.3510618189814636</v>
+        <v>0.7293862081610598</v>
       </c>
       <c r="D25">
-        <v>0.04573697145602296</v>
+        <v>0.1072233985372151</v>
       </c>
       <c r="E25">
-        <v>0.07009199948946243</v>
+        <v>0.01609632254913862</v>
       </c>
       <c r="F25">
-        <v>5.312119290078215</v>
+        <v>7.928072731911698</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1862286961929769</v>
+        <v>0.1634665058579117</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5072718644532017</v>
+        <v>0.6424147262755753</v>
       </c>
       <c r="N25">
         <v>0</v>
